--- a/reports/resnet18_23_no_MMTM/prediction/2/probability_test_2.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/2/probability_test_2.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1621780693531036</v>
+        <v>0.2173248082399368</v>
       </c>
       <c r="C2" t="n">
-        <v>0.837821900844574</v>
+        <v>0.7826752662658691</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1695370078086853</v>
+        <v>0.3541391491889954</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8304629921913147</v>
+        <v>0.6458608508110046</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3482790291309357</v>
+        <v>0.3010208308696747</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6517209410667419</v>
+        <v>0.6989791393280029</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.177698016166687</v>
+        <v>0.2127470523118973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.822301983833313</v>
+        <v>0.7872529029846191</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2713346183300018</v>
+        <v>0.868168830871582</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7286653518676758</v>
+        <v>0.131831169128418</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6554214954376221</v>
+        <v>0.926537811756134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3445785343647003</v>
+        <v>0.07346216589212418</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1825474798679352</v>
+        <v>0.6633336544036865</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8174525499343872</v>
+        <v>0.3366663455963135</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5950248241424561</v>
+        <v>0.7971585392951965</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4049751460552216</v>
+        <v>0.2028414607048035</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1438275575637817</v>
+        <v>0.1490534096956253</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8561724424362183</v>
+        <v>0.8509466052055359</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2557336986064911</v>
+        <v>0.0728355199098587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7442663311958313</v>
+        <v>0.9271644949913025</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1373293101787567</v>
+        <v>0.1681694090366364</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8626706600189209</v>
+        <v>0.831830620765686</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1961572170257568</v>
+        <v>0.2732422351837158</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8038427829742432</v>
+        <v>0.7267577648162842</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2190759778022766</v>
+        <v>0.4357742667198181</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7809240221977234</v>
+        <v>0.5642257928848267</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1594716608524323</v>
+        <v>0.1694251000881195</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8405283689498901</v>
+        <v>0.8305749297142029</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2392895370721817</v>
+        <v>0.4889080226421356</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7607104778289795</v>
+        <v>0.511091947555542</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3421894311904907</v>
+        <v>0.2663741111755371</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6578105688095093</v>
+        <v>0.7336258888244629</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1662713885307312</v>
+        <v>0.1855419874191284</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8337286114692688</v>
+        <v>0.8144580125808716</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2316869348287582</v>
+        <v>0.213338315486908</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7683130502700806</v>
+        <v>0.7866616249084473</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2328831106424332</v>
+        <v>0.4888815581798553</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7671168446540833</v>
+        <v>0.5111184120178223</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1754531264305115</v>
+        <v>0.1790352761745453</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8245468139648438</v>
+        <v>0.8209646940231323</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1471158117055893</v>
+        <v>0.1420120298862457</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8528841733932495</v>
+        <v>0.8579879999160767</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1658570170402527</v>
+        <v>0.1705996096134186</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8341430425643921</v>
+        <v>0.8294004201889038</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
